--- a/src/main/java/com/vapsTechnosoft/IVRM/data/AdmissionReports.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/AdmissionReports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" firstSheet="25" activeTab="27"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" firstSheet="20" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="IVRM_StaffLogin_Data" sheetId="7" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>2017-068</t>
   </si>
   <si>
-    <t>Kinder Gardens</t>
-  </si>
-  <si>
     <t>Absent</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>Final Total</t>
+  </si>
+  <si>
+    <t>Middle School</t>
   </si>
 </sst>
 </file>
@@ -730,10 +730,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -908,7 +908,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B11:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1376,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1391,7 +1391,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1402,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1992,7 +1992,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>

--- a/src/main/java/com/vapsTechnosoft/IVRM/data/AdmissionReports.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/AdmissionReports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" firstSheet="20" activeTab="22"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" firstSheet="16" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="IVRM_StaffLogin_Data" sheetId="7" r:id="rId1"/>
@@ -154,15 +154,9 @@
     <t>2017-068</t>
   </si>
   <si>
-    <t>Absent</t>
-  </si>
-  <si>
     <t>1267</t>
   </si>
   <si>
-    <t>RITESH KUMAR A</t>
-  </si>
-  <si>
     <t>June</t>
   </si>
   <si>
@@ -176,13 +170,19 @@
   </si>
   <si>
     <t>Middle School</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +223,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,6 +275,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,10 +737,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -787,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -884,7 +891,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -993,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1011,8 +1018,8 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+      <c r="A2" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1130,7 +1137,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1180,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1199,7 +1206,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1391,7 +1398,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1402,7 +1409,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1992,7 +1999,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
